--- a/Agile/Product_backlog.xlsx
+++ b/Agile/Product_backlog.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\DevOps BootCamp\SCM\git_project1\Marwan_Sprints_Bootcamp\Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE87660-C987-40F1-8139-088BDEAB4CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F70EFD-CB0A-43B2-9CC5-930CDC7F969F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sponsor Inputs" sheetId="1" r:id="rId1"/>
     <sheet name="Product Backlog Template" sheetId="2" r:id="rId2"/>
+    <sheet name="Conduct Planning" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -157,12 +158,72 @@
   <si>
     <t xml:space="preserve">As a restaurant , I want to view delivery quality and speed so that I can enhance quality </t>
   </si>
+  <si>
+    <t>Sprint Goal</t>
+  </si>
+  <si>
+    <t>Sprint Plannig Keys</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Availability for this sprint</t>
+  </si>
+  <si>
+    <t>2 days per week holidays</t>
+  </si>
+  <si>
+    <t>1 sick leave per day</t>
+  </si>
+  <si>
+    <t>1 annual leave per day</t>
+  </si>
+  <si>
+    <t>Compete against Talabat</t>
+  </si>
+  <si>
+    <t>Team Capacity</t>
+  </si>
+  <si>
+    <t>2 Create Account</t>
+  </si>
+  <si>
+    <t>2 View Restaurants,Search Restaurants &amp;View Menu</t>
+  </si>
+  <si>
+    <t>2 Add to Cart &amp; Purchase</t>
+  </si>
+  <si>
+    <t>2 Restaurant views order &amp; Restaurant marks order as delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Security </t>
+  </si>
+  <si>
+    <t>Total 10</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Sprint backlog</t>
+  </si>
+  <si>
+    <t>in the previous tap</t>
+  </si>
+  <si>
+    <t>Team Confidence</t>
+  </si>
+  <si>
+    <t>Project will be delivered on time with 1st and 2nd priorities</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -172,10 +233,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -183,6 +241,18 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -215,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,6 +305,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +642,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3657,9 +3743,9 @@
   </sheetPr>
   <dimension ref="A1:AC1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3721,58 +3807,78 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
@@ -3789,58 +3895,78 @@
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="14"/>
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="14"/>
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
@@ -3856,14 +3982,18 @@
       <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
@@ -3879,36 +4009,48 @@
       <c r="A16" s="5">
         <v>4</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
@@ -3925,36 +4067,48 @@
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
@@ -3971,25 +4125,33 @@
       <c r="A24" s="5">
         <v>6</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
@@ -4006,25 +4168,33 @@
       <c r="A27" s="5">
         <v>7</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="9"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
@@ -4041,24 +4211,33 @@
       <c r="A30" s="5">
         <v>8</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
@@ -10994,6 +11173,129 @@
       <c r="G1021" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B8:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310FEBCB-EE61-47D6-B959-1813DDBC1B25}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
